--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/9 AUDITORIA PASIVO LARGO PLAZO/2 SUMARIA PASIVO LARGO PLAZO.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/9 AUDITORIA PASIVO LARGO PLAZO/2 SUMARIA PASIVO LARGO PLAZO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\5 PRUEBAS SUSTANTIVAS\9 AUDITORIA PASIVO LARGO PLAZO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\9 AUDITORIA PASIVO LARGO PLAZO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621663E7-4F3B-4C02-941D-8F64376FFCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F044927-6BDE-4704-90DA-D2C3F5794CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
-    <t xml:space="preserve">                                  AUDITORIA FINANCIERA </t>
-  </si>
-  <si>
     <t>Elaboro</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
   </si>
   <si>
     <t>Reviso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                       (Cifras expresadas en quetzales)</t>
   </si>
   <si>
     <t xml:space="preserve">SALDOS S/ BALANCE GENERAL </t>
@@ -117,18 +111,9 @@
     <t>Haber</t>
   </si>
   <si>
-    <t xml:space="preserve">      ENTIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                           DEL 01 DE ENERO AL 31  DE DICIEMBRE DE 2024</t>
-  </si>
-  <si>
     <t>I-1</t>
   </si>
   <si>
-    <t xml:space="preserve">          CEDULA SUMARIA PASIVO LARGO PLAZO</t>
-  </si>
-  <si>
     <t>Al 01/12/AAAA</t>
   </si>
   <si>
@@ -145,6 +130,21 @@
   </si>
   <si>
     <t>para obtener seguridad razonable sobre si los saldos presentados por la entidad, están libres de errores  significativos.</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDITORIA FINANCIERA </t>
+  </si>
+  <si>
+    <t>(Cifras expresadas en quetzales)</t>
+  </si>
+  <si>
+    <t>CEDULA SUMARIA PASIVO LARGO PLAZO</t>
   </si>
 </sst>
 </file>
@@ -155,7 +155,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +260,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -414,12 +420,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
@@ -429,7 +434,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,9 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,6 +531,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1069,7 +1082,7 @@
   <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,440 +1099,445 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="18" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="45"/>
+      <c r="J11" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30">
+        <f t="shared" ref="E14:J14" si="0">SUBTOTAL(9,E13:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="12"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:11" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33">
-        <f>SUBTOTAL(9,E13:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="33">
-        <f>SUBTOTAL(9,F13:F13)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="33">
-        <f>SUBTOTAL(9,G13:G13)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <f>SUBTOTAL(9,H13:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
-        <f>SUBTOTAL(9,I13:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="35">
-        <f>SUBTOTAL(9,J13:J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="36" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="38"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="36"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="39"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="39"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="C26" s="36"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="41"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="39"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="37" t="s">
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="36"/>
+      <c r="E29" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="37"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="36"/>
+      <c r="E30" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="39"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="39"/>
-      <c r="E29" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="39"/>
-      <c r="E30" s="45" t="s">
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="45" t="s">
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E31" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="10">
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="B12:C12"/>
